--- a/Data/Asana.xlsx
+++ b/Data/Asana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcsweeney\Desktop\UiDemo Testing\RPA Vendor Dispute Bot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3802012C-8044-49E1-AAAE-74703E652317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D5C79-1952-4AC0-9C67-A16F17360E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1215" windowWidth="21600" windowHeight="11175" xr2:uid="{C86CC469-5493-4F8D-ABB6-DF992D8F219B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8074BBC3-4930-422A-897F-104497A3607B}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -482,14 +482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04973530-8B52-45A9-AB5E-514A60362331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8039207-BBAB-426A-98B7-CAFBF027D685}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,12 +572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE8BA98-DB04-4EA7-B097-A360DC03E7DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EBDDCC-4238-4E9A-97EE-6B77F29A5B67}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Asana.xlsx
+++ b/Data/Asana.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcsweeney\Desktop\UiDemo Testing\RPA Vendor Dispute Bot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D5C79-1952-4AC0-9C67-A16F17360E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8074BBC3-4930-422A-897F-104497A3607B}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Output" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBD8BD0-ED5F-494F-AEB7-2F6CC875CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="6135" yWindow="1695" windowWidth="21600" windowHeight="11175" firstSheet="0" activeTab="0" xr2:uid="{A08FE9CF-176A-48E7-AF52-46B38578ED2E}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Output" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Uploader" sheetId="3" r:id="rId6"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -31,139 +33,181 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Claim Number</t>
-  </si>
-  <si>
-    <t>Claim Date</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>ClaimAmount</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Claim Reason</t>
-  </si>
-  <si>
-    <t>Customer Ref Num</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>BOL Number</t>
-  </si>
-  <si>
-    <t>Delivery Number</t>
-  </si>
-  <si>
-    <t>Customer PO</t>
-  </si>
-  <si>
-    <t>DM Found</t>
-  </si>
-  <si>
-    <t>Task ID</t>
-  </si>
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Task Description</t>
-  </si>
-  <si>
-    <t>Submitter</t>
-  </si>
-  <si>
-    <t>Assignee</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Claim Resolution</t>
-  </si>
-  <si>
-    <t>RMA #</t>
-  </si>
-  <si>
-    <t>Credit Memo #</t>
-  </si>
-  <si>
-    <t>Credit Amount</t>
-  </si>
-  <si>
-    <t>Latest Comment</t>
-  </si>
-  <si>
-    <t>Attachments</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Claim Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Currency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClaimAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim Reason</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Ref Num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOL Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delivery Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer PO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DM Found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Task ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Task Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Task Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Submitter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assignee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Due Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim Resolution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RMA #</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Credit Memo #</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Credit Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Latest Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attachments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Split Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Split Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Offer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amttoassociate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettleMethod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttachURL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim Investigation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ship to Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>claim description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>customer reference</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Aptos Narrow"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,103 +526,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8039207-BBAB-426A-98B7-CAFBF027D685}">
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4F185D58-9634-45CD-8AAA-24A5DD3E0E29}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:Y1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="X1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EBDDCC-4238-4E9A-97EE-6B77F29A5B67}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{F63DA948-A4CB-4BEF-86C4-A696A2D9FDAB}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:13">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>